--- a/Data_Envariance/n_qubits_envariance_ibmqx3.xlsx
+++ b/Data_Envariance/n_qubits_envariance_ibmqx3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\qiskit-sdk-py\Envariance\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\ibmqx_experiments\Data_Envariance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1024_2" sheetId="1" r:id="rId1"/>
@@ -1306,7 +1306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3775,6 +3775,280 @@
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QX3_8192_2_qubits_envariance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0100000000001000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0000000000001000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_2'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64FD-4005-8991-6ECCF35B6306}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="406869648"/>
+        <c:axId val="406866040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="406869648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406866040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406866040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406869648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -3797,7 +4071,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="it-IT" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4067,7 +4341,305 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QX3_8192_3_qubits_envariance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_3'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0110000000001000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0110000000000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0010000000001000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0000000000001000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0100000000001000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0010000000000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_3'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C11E-4586-8631-CEE1335B83A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="505574048"/>
+        <c:axId val="505572080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="505574048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505572080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="505572080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505574048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4094,7 +4666,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="it-IT" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4508,7 +5080,347 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QX3_819_5_qubits_envariance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_5'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1110000000001100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0000000000000100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1110000000000100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1110000000001000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0000000000001100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1110000000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0010000000000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1010000000001100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1100000000001100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0110000000001100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1100000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0000000000001000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000000000000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_5'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5F0-448C-B421-56A1B802DB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="408091688"/>
+        <c:axId val="408092016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="408091688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408092016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="408092016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408091688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4535,7 +5447,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="it-IT" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5519,7 +6431,347 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QX3_8192_7_qubits_envariance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_7'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1111000000011100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0000000000000100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1111000000011000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0000000000010000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1111000000000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1111000000001100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1111000000010100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0001000000000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1101000000011100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1110000000011100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0000000000001000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0000000000011100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0111000000011100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0000000000011000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_7'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-698D-459C-9964-7EFC42A2C6BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="580084976"/>
+        <c:axId val="580092192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="580084976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580092192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580092192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580084976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5546,7 +6798,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="it-IT" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8213,6 +9465,346 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QX3_8192_9_qubits_envariance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8192_9'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0000000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1111000000011111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0000000000000100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1111000000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0000000000000010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0000000000010000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0001000000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1111000000001111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1111000000010111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0000000000001000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0000000000011111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1111000000011011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1111000000011110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0000000000011000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1111000000011101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8192_9'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EDB-4E68-81B3-8F65BC386BC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="583149768"/>
+        <c:axId val="583157312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="583149768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583157312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="583157312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583149768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -12590,6 +14182,2721 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -12710,6 +17017,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0127B15-7D2F-407A-83B7-7EFF723AF7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12746,6 +17089,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DD9D32-4D85-47D0-BCAF-D04AFB6E42F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12792,6 +17171,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE7C85A-F37D-454A-9076-EDAF4A808298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12833,6 +17248,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8B6F11-C2B3-4593-91AA-920AA3D1E031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12869,6 +17320,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE64812E-84FC-408A-B069-7492C6630025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13501,7 +17988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13593,7 +18080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16468,11 +20955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16560,11 +21047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16696,11 +21183,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17095,11 +21582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18540,11 +23027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D360"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22526,7 +27013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -22662,7 +27149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -23062,7 +27549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -24089,7 +28576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -26029,7 +30516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -26121,7 +30608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -26256,7 +30743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -26656,7 +31143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
